--- a/data/trans_bre/P16A04-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P16A04-Dificultad-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.3199253230085748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1.6532921714775</v>
+        <v>1.653292171477502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1596429535120534</v>
@@ -649,7 +649,7 @@
         <v>0.1161908877599378</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4149290360449235</v>
+        <v>0.4149290360449239</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.381421600110512</v>
+        <v>-1.259924376470442</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.6305395686435602</v>
+        <v>-0.7180565393464364</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.116893990324107</v>
+        <v>-1.08242642215892</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.048307056537233</v>
+        <v>-1.212125607235619</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4326928306969159</v>
+        <v>-0.4160377530007942</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.2165294877844558</v>
+        <v>-0.2332714482764404</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3235581473781444</v>
+        <v>-0.3222161268102968</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2336731347143471</v>
+        <v>-0.2158229412517428</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.831484205113287</v>
+        <v>1.911201565739644</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.341971414038469</v>
+        <v>2.41291763548815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.765375938197389</v>
+        <v>1.704472780622392</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.042842364158258</v>
+        <v>3.916288954428611</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.318261899595314</v>
+        <v>1.475728999547854</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.344684754755874</v>
+        <v>1.318866077626529</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8882764982359941</v>
+        <v>0.8549492875466326</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.526228818492438</v>
+        <v>1.436102451228834</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.499234772728016</v>
+        <v>-1.671342620546104</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.066615614551551</v>
+        <v>-1.92142224207002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-0.6513583003360336</v>
+        <v>-0.8389193522010542</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.1840789964164408</v>
+        <v>-0.3719571919570557</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5429804618025534</v>
+        <v>-0.5893574778943947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4878011761286119</v>
+        <v>-0.4739772087158021</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4042511950140711</v>
+        <v>-0.4602307159761383</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07445985943312192</v>
+        <v>-0.1445058755169984</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9502618690865234</v>
+        <v>0.8285964094361421</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.212513658501385</v>
+        <v>1.131348398663379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.405813733148307</v>
+        <v>1.454159238227648</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.426385621857595</v>
+        <v>2.336439532752052</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6507034062304567</v>
+        <v>0.5506790858148559</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5765255390716771</v>
+        <v>0.5888913845314673</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.859442155554389</v>
+        <v>1.938320000610726</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.820056248766235</v>
+        <v>1.724058498413757</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>0.1658119413912046</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6822422253824058</v>
+        <v>-0.6822422253824061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7755478433137462</v>
@@ -849,7 +849,7 @@
         <v>0.08864896080645367</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.300478188716119</v>
+        <v>-0.3004781887161191</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.1336525968481992</v>
+        <v>-0.1191615116222513</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.376477536870323</v>
+        <v>-3.369472638407064</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.292223624402955</v>
+        <v>-1.433373004541511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.086277641260316</v>
+        <v>-2.392837292390094</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1551290928595949</v>
+        <v>-0.1160783390716786</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6835602609895525</v>
+        <v>-0.7037861793622245</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.5232049775500355</v>
+        <v>-0.5627749152155451</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6489141147988288</v>
+        <v>-0.6754009533892628</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.117467187058934</v>
+        <v>2.20859979908935</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02165769904359719</v>
+        <v>-0.0002424118907342037</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.704714704138224</v>
+        <v>1.688817792014228</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.627238465401958</v>
+        <v>0.5094244156694336</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.619991810149991</v>
+        <v>2.578721915888998</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05101937421794824</v>
+        <v>0.03152220660441816</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.598680393152969</v>
+        <v>1.561734078012973</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.4527941965437161</v>
+        <v>0.3609002650088136</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.1003568555827505</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.897543601370271</v>
+        <v>1.897543601370272</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.03071504496919379</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.784915028492992</v>
+        <v>-1.839383424327068</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.5111599596599643</v>
+        <v>-0.5519010652588896</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.692926355040953</v>
+        <v>-1.540594719550257</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5389358098510532</v>
+        <v>0.5943109721004532</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7422281474775488</v>
+        <v>-0.7679156512572998</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3217172201239023</v>
+        <v>-0.2713343842344256</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6796510019233677</v>
+        <v>-0.6377514941560002</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2019113336900444</v>
+        <v>0.1957078231024743</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.701930659506112</v>
+        <v>1.898364529782563</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.222084522806846</v>
+        <v>4.141926968991351</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.857748170597682</v>
+        <v>1.809320194001368</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.308235428769221</v>
+        <v>3.504735241262975</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>2.436406314242249</v>
+        <v>2.564685851577022</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>5.316770291202868</v>
+        <v>5.760839177123584</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.046620030530693</v>
+        <v>1.814747209676479</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.674835230854688</v>
+        <v>2.6576180137118</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>0.2713624650670554</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.9364193610174126</v>
+        <v>0.9364193610174133</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1903934414774373</v>
@@ -1049,7 +1049,7 @@
         <v>0.1359560227237921</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.400358397225293</v>
+        <v>0.4003583972252933</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3989742067921764</v>
+        <v>-0.3533145029904776</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.9034796595120468</v>
+        <v>-0.848297947176924</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.4816752248629732</v>
+        <v>-0.4259470762109745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1481878102825359</v>
+        <v>0.1647017794000392</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1871607247766471</v>
+        <v>-0.1741692972063234</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2711418128409063</v>
+        <v>-0.2525256212554075</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2045156074336492</v>
+        <v>-0.1864644943084462</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.05682999153132585</v>
+        <v>0.05948780047844807</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9738366818967774</v>
+        <v>1.063352044213087</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9488570299600578</v>
+        <v>0.924164968027343</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9487448005567016</v>
+        <v>0.9745604618975733</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.655370275836342</v>
+        <v>1.695287704689199</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.641778162581769</v>
+        <v>0.7039941470081919</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4114047412287326</v>
+        <v>0.3878016365261176</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5772728500168376</v>
+        <v>0.5824875212798487</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.857715396695986</v>
+        <v>0.8905358781036669</v>
       </c>
     </row>
     <row r="19">
